--- a/Test/TestGD.xlsx
+++ b/Test/TestGD.xlsx
@@ -7,16 +7,24 @@
     <sheet state="hidden" name="Sheet0" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="Merged4">Sheet1!$B$4:$D$6</definedName>
     <definedName name="Merged1">Sheet1!$B$2:$C$2</definedName>
-    <definedName name="VMerged1">Sheet1!$D$1:$D$2</definedName>
-    <definedName name="Merged2">Sheet1!$C$4:$D$4</definedName>
+    <definedName name="Merged2">Sheet1!$D$1:$D$2</definedName>
+    <definedName name="Merged3">Sheet1!$B$4:$D$6</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>formula in I1:</t>
+  </si>
+  <si>
+    <t>Merged cells</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40,7 +48,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -79,6 +87,58 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -90,17 +150,33 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" textRotation="45" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -125,22 +201,60 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="D1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <f>SUM(H2)</f>
+        <v>12.85</v>
+      </c>
     </row>
     <row r="2">
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="H2" s="2">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="H3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8"/>
     </row>
     <row r="4">
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="8"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="H7" s="13"/>
+      <c r="I7" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:D6"/>
+    <mergeCell ref="H3:I7"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -154,7 +268,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
+      <c r="A1" s="3">
         <v>43069.0</v>
       </c>
     </row>
